--- a/Feb'2021/15.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/15.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2488,6 +2488,12 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,12 +2510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2611,12 +2611,6 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2704,13 +2698,24 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="2"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3122,46 +3127,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="251" t="s">
@@ -3191,34 +3196,34 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="D4" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="247" t="s">
+      <c r="E4" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="247" t="s">
+      <c r="F4" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="247" t="s">
+      <c r="H4" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="247" t="s">
+      <c r="I4" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="247" t="s">
+      <c r="J4" s="241" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="254" t="s">
@@ -3249,16 +3254,16 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="244"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="A5" s="246"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
       <c r="K5" s="255"/>
       <c r="L5" s="257"/>
       <c r="M5" s="259"/>
@@ -6142,6 +6147,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -6158,9 +6166,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8176,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8374,7 +8379,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="230" t="s">
         <v>58</v>
       </c>
@@ -8384,35 +8389,35 @@
       <c r="C17" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="282"/>
-      <c r="K17" s="282"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="312"/>
+      <c r="I17" s="312"/>
+      <c r="J17" s="312"/>
+      <c r="K17" s="312"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="230" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="187">
-        <v>855</v>
+        <v>2855</v>
       </c>
       <c r="C18" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="283"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="282"/>
-      <c r="H18" s="282"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="282"/>
-      <c r="K18" s="282"/>
+      <c r="E18" s="311"/>
+      <c r="F18" s="311"/>
+      <c r="G18" s="312"/>
+      <c r="H18" s="312"/>
+      <c r="I18" s="312"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="312"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -8567,21 +8572,19 @@
       </c>
       <c r="B28" s="280">
         <f>SUM(B6:B27)</f>
-        <v>64246</v>
+        <v>66246</v>
       </c>
       <c r="C28" s="281"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="G17:K18"/>
-    <mergeCell ref="E17:F18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:C26">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A5:A26 C5:C26 B5:B8 B10:B26">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G$17=A5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8593,7 +8596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -8615,25 +8618,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="289"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="287"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="292"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8658,11 +8661,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="294"/>
-      <c r="L4" s="295"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="293"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8927,21 +8930,21 @@
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
       <c r="F16" s="23"/>
-      <c r="J16" s="296" t="s">
+      <c r="J16" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="297"/>
+      <c r="K16" s="295"/>
       <c r="L16" s="136">
         <f>SUM(L6:L15)</f>
         <v>18426</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="284"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="285"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="286"/>
+      <c r="A17" s="282"/>
+      <c r="B17" s="283"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="284"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -9056,8 +9059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9081,108 +9084,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
+      <c r="A2" s="299"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="300"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="300"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
+      <c r="O4" s="301"/>
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="302" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="304" t="s">
+      <c r="B5" s="303"/>
+      <c r="C5" s="302" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="306"/>
-      <c r="P5" s="305"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="303"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9765,11 +9768,11 @@
       <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="298" t="s">
+      <c r="A28" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="300"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10481,7 +10484,7 @@
     <mergeCell ref="C5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:P27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10507,12 +10510,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="305" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="307"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10866,7 +10869,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10907,111 +10910,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="301"/>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
+      <c r="A2" s="299"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="300"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="300"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
+      <c r="O4" s="301"/>
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="310" t="s">
+      <c r="A5" s="308" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="311"/>
+      <c r="B5" s="309"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="174"/>
-      <c r="F5" s="306" t="s">
+      <c r="F5" s="304" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="306"/>
-      <c r="P5" s="306"/>
-      <c r="Q5" s="305"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="303"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11645,11 +11648,11 @@
       <c r="Q27" s="182"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="298" t="s">
+      <c r="A28" s="296" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="300"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12383,10 +12386,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="310" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="312"/>
+      <c r="C1" s="310"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="220" t="s">

--- a/Feb'2021/15.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/15.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2488,6 +2488,22 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2543,18 +2559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,24 +2702,13 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="2"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3127,67 +3120,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="253"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="259"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3196,52 +3189,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="260" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="256" t="s">
+      <c r="L4" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="258" t="s">
+      <c r="M4" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="260" t="s">
+      <c r="N4" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="262" t="s">
+      <c r="O4" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="255" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="192" t="s">
@@ -3254,22 +3247,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="246"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="255"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="259"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="250"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="256"/>
       <c r="Q5" s="193" t="s">
         <v>36</v>
       </c>
@@ -6147,12 +6140,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6166,6 +6153,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6193,12 +6186,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="266"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6213,12 +6206,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -8181,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8193,28 +8186,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="272"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="271"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="273"/>
+      <c r="A2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="275"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="277"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="279"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="281"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="228" t="s">
@@ -8389,13 +8382,13 @@
       <c r="C17" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="311"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="312"/>
-      <c r="H17" s="312"/>
-      <c r="I17" s="312"/>
-      <c r="J17" s="312"/>
-      <c r="K17" s="312"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -8411,13 +8404,13 @@
       <c r="C18" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="311"/>
-      <c r="F18" s="311"/>
-      <c r="G18" s="312"/>
-      <c r="H18" s="312"/>
-      <c r="I18" s="312"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="312"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -8570,11 +8563,11 @@
       <c r="A28" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="280">
+      <c r="B28" s="282">
         <f>SUM(B6:B27)</f>
         <v>66246</v>
       </c>
-      <c r="C28" s="281"/>
+      <c r="C28" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8584,7 +8577,7 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A26 C5:C26 B5:B8 B10:B26">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G$17=A5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8618,25 +8611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="289"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="292"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8661,11 +8654,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="293" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="292"/>
-      <c r="L4" s="293"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="295"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8930,21 +8923,21 @@
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
       <c r="F16" s="23"/>
-      <c r="J16" s="294" t="s">
+      <c r="J16" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="295"/>
+      <c r="K16" s="297"/>
       <c r="L16" s="136">
         <f>SUM(L6:L15)</f>
         <v>18426</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="282"/>
-      <c r="B17" s="283"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="284"/>
+      <c r="A17" s="284"/>
+      <c r="B17" s="285"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="286"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -9059,7 +9052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9084,108 +9077,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="299"/>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="300"/>
-      <c r="P3" s="300"/>
-      <c r="Q3" s="300"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="304" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="303"/>
-      <c r="C5" s="302" t="s">
+      <c r="B5" s="305"/>
+      <c r="C5" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="303"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="306"/>
+      <c r="P5" s="305"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9768,11 +9761,11 @@
       <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="296" t="s">
+      <c r="A28" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="297"/>
-      <c r="C28" s="298"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="300"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10484,7 +10477,7 @@
     <mergeCell ref="C5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:P27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10510,12 +10503,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="307" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="307"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="309"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10869,7 +10862,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10910,111 +10903,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="299"/>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="300"/>
-      <c r="P3" s="300"/>
-      <c r="Q3" s="300"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="310" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="309"/>
+      <c r="B5" s="311"/>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="174"/>
-      <c r="F5" s="304" t="s">
+      <c r="F5" s="306" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="303"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="306"/>
+      <c r="P5" s="306"/>
+      <c r="Q5" s="305"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11648,11 +11641,11 @@
       <c r="Q27" s="182"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="296" t="s">
+      <c r="A28" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="297"/>
-      <c r="C28" s="298"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="300"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12386,10 +12379,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="310" t="s">
+      <c r="B1" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="310"/>
+      <c r="C1" s="312"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="220" t="s">
